--- a/12_家計簿.xlsx
+++ b/12_家計簿.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCA37EF-D66C-48B3-9E45-07CC5087256B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D072C354-0117-4558-B429-684592546D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAA9D474-A6FD-45EF-B28F-A9A1BCEC0F31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1月" sheetId="1" r:id="rId1"/>
+    <sheet name="2月" sheetId="3" r:id="rId2"/>
+    <sheet name="3月" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1月'!$A$6:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2月'!$A$6:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3月'!$A$6:$E$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>今月予算</t>
     <rPh sb="0" eb="4">
@@ -385,36 +392,56 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -738,7 +765,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -747,13 +774,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
@@ -765,7 +792,7 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -807,7 +834,7 @@
       <c r="A7" s="7">
         <v>44927</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="10">
@@ -996,12 +1023,12 @@
       <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
+    <row r="19" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
@@ -1011,6 +1038,435 @@
       <c r="E20" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A6:E6" xr:uid="{95BD8E47-1CEC-438A-81BB-8CA5DBEDA03A}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="D7:D20">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130DA91F-23FE-47C2-875A-ACDF8B066D2E}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="11.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9">
+        <f>SUM(C7:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <f>A4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <f>A4*0.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>D7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>D8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
+        <f>D9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <f>D10+C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <f>D11+C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <f t="shared" ref="D13:D17" si="0">D12+C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E6" xr:uid="{95BD8E47-1CEC-438A-81BB-8CA5DBEDA03A}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <conditionalFormatting sqref="D7:D20">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F687BB5-B0B6-4B21-A3A7-B5756A869397}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="11.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9">
+        <f>SUM(C7:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <f>A4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <f>A4*0.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f>D7+C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f>D8+C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
+        <f>D9+C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <f>D10+C11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <f>D11+C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <f t="shared" ref="D13:D17" si="0">D12+C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:E6" xr:uid="{95BD8E47-1CEC-438A-81BB-8CA5DBEDA03A}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
